--- a/User_Files/ValueLine_Special_Situations.xlsx
+++ b/User_Files/ValueLine_Special_Situations.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sundeep\Stocks_Automation\User_Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF5A2946-DE9F-4ADA-AD74-287E909DA928}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C57FC63C-E105-4050-87DF-0153C103B5D3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{75EF3D48-56E8-4117-9C9D-7A874A2D11C9}"/>
   </bookViews>
   <sheets>
-    <sheet name="2020-06-Jun" sheetId="2" r:id="rId1"/>
-    <sheet name="2020-05-May" sheetId="1" r:id="rId2"/>
+    <sheet name="2020-07-Jul" sheetId="3" r:id="rId1"/>
+    <sheet name="2020-06-Jun" sheetId="2" r:id="rId2"/>
+    <sheet name="2020-05-May" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -87,6 +88,187 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>532467</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>47048</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A34578E-6A11-4EFE-AC1A-0EBC0CE3DDA9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="152400"/>
+          <a:ext cx="7466667" cy="4619048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>27637</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>47154</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{118ECF06-31C8-40DA-94FF-DF96F7E3C8C5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7991475" y="390525"/>
+          <a:ext cx="7504762" cy="3771429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>189943</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>75790</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8FCD30D2-2BA5-4A01-AE19-FB960A3B2F36}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="533400" y="5029200"/>
+          <a:ext cx="4457143" cy="3276190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>294705</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>123409</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28333C78-F663-4329-A3C5-0ACD726FA984}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8001000" y="5029200"/>
+          <a:ext cx="4561905" cy="3323809"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
@@ -262,7 +444,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -739,11 +921,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EBCC601-5AAE-4151-BD43-FBBFDDB2B179}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12EDC703-2CD3-4F6A-8B44-04AAB336C99B}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="AD42" sqref="AD42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P34" sqref="P34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -754,6 +936,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EBCC601-5AAE-4151-BD43-FBBFDDB2B179}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="N48" sqref="N48"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84DD9023-EA36-4101-81B1-60C34DBE3F55}">
   <dimension ref="A1"/>
   <sheetViews>

--- a/User_Files/ValueLine_Special_Situations.xlsx
+++ b/User_Files/ValueLine_Special_Situations.xlsx
@@ -1,21 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sundeep\Stocks_Automation\User_Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C57FC63C-E105-4050-87DF-0153C103B5D3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{648673BE-3987-4120-9A80-0B014E29EFF3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{75EF3D48-56E8-4117-9C9D-7A874A2D11C9}"/>
   </bookViews>
   <sheets>
-    <sheet name="2020-07-Jul" sheetId="3" r:id="rId1"/>
-    <sheet name="2020-06-Jun" sheetId="2" r:id="rId2"/>
-    <sheet name="2020-05-May" sheetId="1" r:id="rId3"/>
+    <sheet name="ReadMe" sheetId="5" r:id="rId1"/>
+    <sheet name="2020-08-Aug" sheetId="4" r:id="rId2"/>
+    <sheet name="2020-07-Jul" sheetId="3" r:id="rId3"/>
+    <sheet name="2020-06-Jun" sheetId="2" r:id="rId4"/>
+    <sheet name="2020-05-May" sheetId="1" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,11 +34,32 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>1. Download the pdf from Austin Library - 
+http://library.austintexas.gov/database/value-line
+Library Card : 1000895457249
+2. The zoom should be set to 125%.
+3. Then use Snip tool to get the current holding and the current month recommendations. 
+4. Check if the current months recommnedations have potential as per profitspi and CNBC
+5. Checke also the Esp. Recommended in the holdings section as per profitspi and CNBC and see if any of them have any potential .</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -63,8 +86,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -83,6 +109,187 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>532467</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>27962</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{316BA58F-8C5A-4A66-B50B-1F8B166F3422}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="533400" y="304800"/>
+          <a:ext cx="7466667" cy="4904762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>418171</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>113801</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91BEED75-2754-475F-AC68-733F9C1A97A8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8458200" y="695325"/>
+          <a:ext cx="7428571" cy="3990476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>361371</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>66267</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10D16582-2CA4-4B46-956F-FC507F3AAD1A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="533400" y="5638800"/>
+          <a:ext cx="4628571" cy="3266667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>275657</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>9105</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95F82E4D-E963-409B-BE02-E8305959419F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8534400" y="5638800"/>
+          <a:ext cx="4542857" cy="3361905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -263,7 +470,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -444,7 +651,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -921,10 +1128,827 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E56BFE69-74D4-4DA0-9611-FD52AFF76C7F}">
+  <dimension ref="B3:V36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AD15" sqref="AD15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="3" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+    </row>
+    <row r="4" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+    </row>
+    <row r="5" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
+    </row>
+    <row r="6" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
+      <c r="V6" s="1"/>
+    </row>
+    <row r="7" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
+    </row>
+    <row r="8" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1"/>
+      <c r="U8" s="1"/>
+      <c r="V8" s="1"/>
+    </row>
+    <row r="9" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1"/>
+      <c r="U9" s="1"/>
+      <c r="V9" s="1"/>
+    </row>
+    <row r="10" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
+      <c r="U10" s="1"/>
+      <c r="V10" s="1"/>
+    </row>
+    <row r="11" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1"/>
+      <c r="U11" s="1"/>
+      <c r="V11" s="1"/>
+    </row>
+    <row r="12" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="1"/>
+      <c r="U12" s="1"/>
+      <c r="V12" s="1"/>
+    </row>
+    <row r="13" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="1"/>
+      <c r="U13" s="1"/>
+      <c r="V13" s="1"/>
+    </row>
+    <row r="14" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1"/>
+      <c r="U14" s="1"/>
+      <c r="V14" s="1"/>
+    </row>
+    <row r="15" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="1"/>
+      <c r="U15" s="1"/>
+      <c r="V15" s="1"/>
+    </row>
+    <row r="16" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+      <c r="T16" s="1"/>
+      <c r="U16" s="1"/>
+      <c r="V16" s="1"/>
+    </row>
+    <row r="17" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1"/>
+      <c r="U17" s="1"/>
+      <c r="V17" s="1"/>
+    </row>
+    <row r="18" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="1"/>
+      <c r="U18" s="1"/>
+      <c r="V18" s="1"/>
+    </row>
+    <row r="19" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
+      <c r="S19" s="1"/>
+      <c r="T19" s="1"/>
+      <c r="U19" s="1"/>
+      <c r="V19" s="1"/>
+    </row>
+    <row r="20" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
+      <c r="S20" s="1"/>
+      <c r="T20" s="1"/>
+      <c r="U20" s="1"/>
+      <c r="V20" s="1"/>
+    </row>
+    <row r="21" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="1"/>
+      <c r="S21" s="1"/>
+      <c r="T21" s="1"/>
+      <c r="U21" s="1"/>
+      <c r="V21" s="1"/>
+    </row>
+    <row r="22" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="1"/>
+      <c r="S22" s="1"/>
+      <c r="T22" s="1"/>
+      <c r="U22" s="1"/>
+      <c r="V22" s="1"/>
+    </row>
+    <row r="23" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="1"/>
+      <c r="R23" s="1"/>
+      <c r="S23" s="1"/>
+      <c r="T23" s="1"/>
+      <c r="U23" s="1"/>
+      <c r="V23" s="1"/>
+    </row>
+    <row r="24" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="1"/>
+      <c r="S24" s="1"/>
+      <c r="T24" s="1"/>
+      <c r="U24" s="1"/>
+      <c r="V24" s="1"/>
+    </row>
+    <row r="25" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1"/>
+      <c r="R25" s="1"/>
+      <c r="S25" s="1"/>
+      <c r="T25" s="1"/>
+      <c r="U25" s="1"/>
+      <c r="V25" s="1"/>
+    </row>
+    <row r="26" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="1"/>
+      <c r="R26" s="1"/>
+      <c r="S26" s="1"/>
+      <c r="T26" s="1"/>
+      <c r="U26" s="1"/>
+      <c r="V26" s="1"/>
+    </row>
+    <row r="27" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
+      <c r="Q27" s="1"/>
+      <c r="R27" s="1"/>
+      <c r="S27" s="1"/>
+      <c r="T27" s="1"/>
+      <c r="U27" s="1"/>
+      <c r="V27" s="1"/>
+    </row>
+    <row r="28" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="1"/>
+      <c r="S28" s="1"/>
+      <c r="T28" s="1"/>
+      <c r="U28" s="1"/>
+      <c r="V28" s="1"/>
+    </row>
+    <row r="29" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="1"/>
+      <c r="Q29" s="1"/>
+      <c r="R29" s="1"/>
+      <c r="S29" s="1"/>
+      <c r="T29" s="1"/>
+      <c r="U29" s="1"/>
+      <c r="V29" s="1"/>
+    </row>
+    <row r="30" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="1"/>
+      <c r="R30" s="1"/>
+      <c r="S30" s="1"/>
+      <c r="T30" s="1"/>
+      <c r="U30" s="1"/>
+      <c r="V30" s="1"/>
+    </row>
+    <row r="31" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+      <c r="Q31" s="1"/>
+      <c r="R31" s="1"/>
+      <c r="S31" s="1"/>
+      <c r="T31" s="1"/>
+      <c r="U31" s="1"/>
+      <c r="V31" s="1"/>
+    </row>
+    <row r="32" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+      <c r="Q32" s="1"/>
+      <c r="R32" s="1"/>
+      <c r="S32" s="1"/>
+      <c r="T32" s="1"/>
+      <c r="U32" s="1"/>
+      <c r="V32" s="1"/>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1"/>
+      <c r="Q33" s="1"/>
+      <c r="R33" s="1"/>
+      <c r="S33" s="1"/>
+      <c r="T33" s="1"/>
+      <c r="U33" s="1"/>
+      <c r="V33" s="1"/>
+    </row>
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="1"/>
+      <c r="Q34" s="1"/>
+      <c r="R34" s="1"/>
+      <c r="S34" s="1"/>
+      <c r="T34" s="1"/>
+      <c r="U34" s="1"/>
+      <c r="V34" s="1"/>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+      <c r="P35" s="1"/>
+      <c r="Q35" s="1"/>
+      <c r="R35" s="1"/>
+      <c r="S35" s="1"/>
+      <c r="T35" s="1"/>
+      <c r="U35" s="1"/>
+      <c r="V35" s="1"/>
+    </row>
+    <row r="36" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+      <c r="P36" s="1"/>
+      <c r="Q36" s="1"/>
+      <c r="R36" s="1"/>
+      <c r="S36" s="1"/>
+      <c r="T36" s="1"/>
+      <c r="U36" s="1"/>
+      <c r="V36" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B3:V36"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CFC5CE5-2417-4215-99DD-923F11E883AE}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AD38" sqref="AD38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12EDC703-2CD3-4F6A-8B44-04AAB336C99B}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P34" sqref="P34"/>
     </sheetView>
   </sheetViews>
@@ -935,7 +1959,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EBCC601-5AAE-4151-BD43-FBBFDDB2B179}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -950,7 +1974,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84DD9023-EA36-4101-81B1-60C34DBE3F55}">
   <dimension ref="A1"/>
   <sheetViews>

--- a/User_Files/ValueLine_Special_Situations.xlsx
+++ b/User_Files/ValueLine_Special_Situations.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sundeep\Stocks_Automation\User_Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{648673BE-3987-4120-9A80-0B014E29EFF3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB3FC5FF-C32F-4593-8516-14678E03C426}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{75EF3D48-56E8-4117-9C9D-7A874A2D11C9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{75EF3D48-56E8-4117-9C9D-7A874A2D11C9}"/>
   </bookViews>
   <sheets>
     <sheet name="ReadMe" sheetId="5" r:id="rId1"/>
-    <sheet name="2020-08-Aug" sheetId="4" r:id="rId2"/>
-    <sheet name="2020-07-Jul" sheetId="3" r:id="rId3"/>
-    <sheet name="2020-06-Jun" sheetId="2" r:id="rId4"/>
-    <sheet name="2020-05-May" sheetId="1" r:id="rId5"/>
+    <sheet name="2020-09-Sep" sheetId="6" r:id="rId2"/>
+    <sheet name="2020-08-Aug" sheetId="4" r:id="rId3"/>
+    <sheet name="2020-07-Jul" sheetId="3" r:id="rId4"/>
+    <sheet name="2020-06-Jun" sheetId="2" r:id="rId5"/>
+    <sheet name="2020-05-May" sheetId="1" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -109,6 +110,187 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>456276</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>18457</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B08684A-3840-415C-9B2D-5F5AC4287F6C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="533400" y="304800"/>
+          <a:ext cx="7390476" cy="4742857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>351513</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>94748</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54711A23-97C5-423C-A049-9F53BDC02D69}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8524875" y="647700"/>
+          <a:ext cx="7295238" cy="4019048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>189943</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>123371</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA24BE08-A924-473D-9728-DFF0BC03F09C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="533400" y="5486400"/>
+          <a:ext cx="4457143" cy="3628571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>332800</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>94819</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F0459A5-237E-4B8B-B152-9D9EDCB6EB22}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8534400" y="5486400"/>
+          <a:ext cx="4600000" cy="3447619"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -289,7 +471,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -470,7 +652,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -651,7 +833,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1131,7 +1313,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E56BFE69-74D4-4DA0-9611-FD52AFF76C7F}">
   <dimension ref="B3:V36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AD15" sqref="AD15"/>
     </sheetView>
   </sheetViews>
@@ -1930,11 +2112,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CFC5CE5-2417-4215-99DD-923F11E883AE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59762325-C8B3-48E3-A85B-2B2DEB36374B}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AD38" sqref="AD38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AF23" sqref="AF23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -1945,6 +2127,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CFC5CE5-2417-4215-99DD-923F11E883AE}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L39" sqref="L39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12EDC703-2CD3-4F6A-8B44-04AAB336C99B}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -1959,7 +2156,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EBCC601-5AAE-4151-BD43-FBBFDDB2B179}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -1974,7 +2171,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84DD9023-EA36-4101-81B1-60C34DBE3F55}">
   <dimension ref="A1"/>
   <sheetViews>

--- a/User_Files/ValueLine_Special_Situations.xlsx
+++ b/User_Files/ValueLine_Special_Situations.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sundeep\Stocks_Automation\User_Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB3FC5FF-C32F-4593-8516-14678E03C426}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17BB7378-E453-4C33-97B8-083C3B3C12B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{75EF3D48-56E8-4117-9C9D-7A874A2D11C9}"/>
   </bookViews>
   <sheets>
     <sheet name="ReadMe" sheetId="5" r:id="rId1"/>
-    <sheet name="2020-09-Sep" sheetId="6" r:id="rId2"/>
-    <sheet name="2020-08-Aug" sheetId="4" r:id="rId3"/>
-    <sheet name="2020-07-Jul" sheetId="3" r:id="rId4"/>
-    <sheet name="2020-06-Jun" sheetId="2" r:id="rId5"/>
-    <sheet name="2020-05-May" sheetId="1" r:id="rId6"/>
+    <sheet name="2020-10-Oct" sheetId="8" r:id="rId2"/>
+    <sheet name="2020-09-Sep" sheetId="6" r:id="rId3"/>
+    <sheet name="2020-08-Aug" sheetId="4" r:id="rId4"/>
+    <sheet name="2020-07-Jul" sheetId="3" r:id="rId5"/>
+    <sheet name="2020-06-Jun" sheetId="2" r:id="rId6"/>
+    <sheet name="2020-05-May" sheetId="1" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -110,6 +111,187 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>409057</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>132933</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D4DED21-9FCD-47F6-A6F5-6842CA97B220}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="533400" y="5638800"/>
+          <a:ext cx="4142857" cy="3333333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>323343</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>85333</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88E8A6BC-12C6-4C1B-A061-AF0E5BAE7D5C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8534400" y="5334000"/>
+          <a:ext cx="4057143" cy="3133333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>103957</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>18508</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5CAE10D8-C933-4185-9D65-C60AADA0F655}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="495300" y="561975"/>
+          <a:ext cx="6542857" cy="4333333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>379022</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{175F3A17-3268-44DA-B264-DFBB2EA3A4A7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8534400" y="609600"/>
+          <a:ext cx="7313222" cy="4162425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -290,7 +472,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -471,7 +653,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -652,7 +834,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -833,7 +1015,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2112,11 +2294,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59762325-C8B3-48E3-A85B-2B2DEB36374B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D370DDF-DA49-470A-A4F3-5B77DEAE24F5}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AF23" sqref="AF23"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="AG29" sqref="AG29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -2127,6 +2309,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59762325-C8B3-48E3-A85B-2B2DEB36374B}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M46" sqref="M46"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CFC5CE5-2417-4215-99DD-923F11E883AE}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -2141,7 +2338,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12EDC703-2CD3-4F6A-8B44-04AAB336C99B}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -2156,7 +2353,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EBCC601-5AAE-4151-BD43-FBBFDDB2B179}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -2171,7 +2368,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84DD9023-EA36-4101-81B1-60C34DBE3F55}">
   <dimension ref="A1"/>
   <sheetViews>

--- a/User_Files/ValueLine_Special_Situations.xlsx
+++ b/User_Files/ValueLine_Special_Situations.xlsx
@@ -2,24 +2,25 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sundeep\Stocks_Automation\User_Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17BB7378-E453-4C33-97B8-083C3B3C12B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05A61234-1808-4D70-9651-65E7F3ADD9B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{75EF3D48-56E8-4117-9C9D-7A874A2D11C9}"/>
   </bookViews>
   <sheets>
     <sheet name="ReadMe" sheetId="5" r:id="rId1"/>
-    <sheet name="2020-10-Oct" sheetId="8" r:id="rId2"/>
-    <sheet name="2020-09-Sep" sheetId="6" r:id="rId3"/>
-    <sheet name="2020-08-Aug" sheetId="4" r:id="rId4"/>
-    <sheet name="2020-07-Jul" sheetId="3" r:id="rId5"/>
-    <sheet name="2020-06-Jun" sheetId="2" r:id="rId6"/>
-    <sheet name="2020-05-May" sheetId="1" r:id="rId7"/>
+    <sheet name="2020-11-Nov" sheetId="9" r:id="rId2"/>
+    <sheet name="2020-10-Oct" sheetId="8" r:id="rId3"/>
+    <sheet name="2020-09-Sep" sheetId="6" r:id="rId4"/>
+    <sheet name="2020-08-Aug" sheetId="4" r:id="rId5"/>
+    <sheet name="2020-07-Jul" sheetId="3" r:id="rId6"/>
+    <sheet name="2020-06-Jun" sheetId="2" r:id="rId7"/>
+    <sheet name="2020-05-May" sheetId="1" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +30,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -116,21 +119,21 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>409057</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>132933</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>532600</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>151867</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="6" name="Picture 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D4DED21-9FCD-47F6-A6F5-6842CA97B220}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06EAC018-6C0B-451F-8E32-62FF2474ADAF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -146,8 +149,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="533400" y="5638800"/>
-          <a:ext cx="4142857" cy="3333333"/>
+          <a:off x="533400" y="762000"/>
+          <a:ext cx="6400000" cy="4266667"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -160,109 +163,109 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>484981</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>94800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3571794C-40BF-4A28-AB9D-BE4298909E88}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8534400" y="1066800"/>
+          <a:ext cx="6352381" cy="3600000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>266200</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>142495</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1AD8EE14-AF9C-4F8B-9F86-5F3990C624B5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="533400" y="5943600"/>
+          <a:ext cx="4000000" cy="3038095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>323343</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>85333</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Picture 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88E8A6BC-12C6-4C1B-A061-AF0E5BAE7D5C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8534400" y="5334000"/>
-          <a:ext cx="4057143" cy="3133333"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>103957</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>18508</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Picture 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5CAE10D8-C933-4185-9D65-C60AADA0F655}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="495300" y="561975"/>
-          <a:ext cx="6542857" cy="4333333"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>379022</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>123448</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="9" name="Picture 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{175F3A17-3268-44DA-B264-DFBB2EA3A4A7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E7D816B-1CDE-4DCB-B93E-A285848FE855}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -278,8 +281,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8534400" y="609600"/>
-          <a:ext cx="7313222" cy="4162425"/>
+          <a:off x="8534400" y="5791200"/>
+          <a:ext cx="4057143" cy="3019048"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -297,21 +300,21 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>456276</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>18457</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B08684A-3840-415C-9B2D-5F5AC4287F6C}"/>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>409057</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>132933</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D4DED21-9FCD-47F6-A6F5-6842CA97B220}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -327,96 +330,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="533400" y="304800"/>
-          <a:ext cx="7390476" cy="4742857"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>351513</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>94748</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54711A23-97C5-423C-A049-9F53BDC02D69}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8524875" y="647700"/>
-          <a:ext cx="7295238" cy="4019048"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>189943</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>123371</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA24BE08-A924-473D-9728-DFF0BC03F09C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="533400" y="5486400"/>
-          <a:ext cx="4457143" cy="3628571"/>
+          <a:off x="533400" y="5638800"/>
+          <a:ext cx="4142857" cy="3333333"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -429,21 +344,109 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>332800</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>94819</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F0459A5-237E-4B8B-B152-9D9EDCB6EB22}"/>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>323343</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>85333</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88E8A6BC-12C6-4C1B-A061-AF0E5BAE7D5C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8534400" y="5334000"/>
+          <a:ext cx="4057143" cy="3133333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>103957</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>18508</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5CAE10D8-C933-4185-9D65-C60AADA0F655}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="495300" y="561975"/>
+          <a:ext cx="6542857" cy="4333333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>379022</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{175F3A17-3268-44DA-B264-DFBB2EA3A4A7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -459,8 +462,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8534400" y="5486400"/>
-          <a:ext cx="4600000" cy="3447619"/>
+          <a:off x="8534400" y="609600"/>
+          <a:ext cx="7313222" cy="4162425"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -483,16 +486,16 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>532467</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>27962</xdr:rowOff>
+      <xdr:colOff>456276</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>18457</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{316BA58F-8C5A-4A66-B50B-1F8B166F3422}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B08684A-3840-415C-9B2D-5F5AC4287F6C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -509,7 +512,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="533400" y="304800"/>
-          <a:ext cx="7466667" cy="4904762"/>
+          <a:ext cx="7390476" cy="4742857"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -521,22 +524,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
+      <xdr:colOff>523875</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
-      <xdr:colOff>418171</xdr:colOff>
+      <xdr:colOff>351513</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>113801</xdr:rowOff>
+      <xdr:rowOff>94748</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91BEED75-2754-475F-AC68-733F9C1A97A8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54711A23-97C5-423C-A049-9F53BDC02D69}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -552,8 +555,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8458200" y="695325"/>
-          <a:ext cx="7428571" cy="3990476"/>
+          <a:off x="8524875" y="647700"/>
+          <a:ext cx="7295238" cy="4019048"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -566,21 +569,21 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>361371</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>66267</xdr:rowOff>
+      <xdr:colOff>189943</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>123371</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10D16582-2CA4-4B46-956F-FC507F3AAD1A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA24BE08-A924-473D-9728-DFF0BC03F09C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -596,8 +599,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="533400" y="5638800"/>
-          <a:ext cx="4628571" cy="3266667"/>
+          <a:off x="533400" y="5486400"/>
+          <a:ext cx="4457143" cy="3628571"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -610,21 +613,21 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>275657</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>9105</xdr:rowOff>
+      <xdr:colOff>332800</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>94819</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95F82E4D-E963-409B-BE02-E8305959419F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F0459A5-237E-4B8B-B152-9D9EDCB6EB22}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -640,8 +643,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8534400" y="5638800"/>
-          <a:ext cx="4542857" cy="3361905"/>
+          <a:off x="8534400" y="5486400"/>
+          <a:ext cx="4600000" cy="3447619"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -657,111 +660,111 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>532467</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>47048</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A34578E-6A11-4EFE-AC1A-0EBC0CE3DDA9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="152400"/>
-          <a:ext cx="7466667" cy="4619048"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>27637</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>47154</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{118ECF06-31C8-40DA-94FF-DF96F7E3C8C5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7991475" y="390525"/>
-          <a:ext cx="7504762" cy="3771429"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>532467</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>27962</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{316BA58F-8C5A-4A66-B50B-1F8B166F3422}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="533400" y="304800"/>
+          <a:ext cx="7466667" cy="4904762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>418171</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>113801</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91BEED75-2754-475F-AC68-733F9C1A97A8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8458200" y="695325"/>
+          <a:ext cx="7428571" cy="3990476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>189943</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>75790</xdr:rowOff>
+      <xdr:colOff>361371</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>66267</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8FCD30D2-2BA5-4A01-AE19-FB960A3B2F36}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10D16582-2CA4-4B46-956F-FC507F3AAD1A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -777,35 +780,35 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="533400" y="5029200"/>
-          <a:ext cx="4457143" cy="3276190"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>15</xdr:col>
+          <a:off x="533400" y="5638800"/>
+          <a:ext cx="4628571" cy="3266667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>294705</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>123409</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>275657</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>9105</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28333C78-F663-4329-A3C5-0ACD726FA984}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95F82E4D-E963-409B-BE02-E8305959419F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -821,8 +824,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8001000" y="5029200"/>
-          <a:ext cx="4561905" cy="3323809"/>
+          <a:off x="8534400" y="5638800"/>
+          <a:ext cx="4542857" cy="3361905"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -840,6 +843,187 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>532467</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>47048</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A34578E-6A11-4EFE-AC1A-0EBC0CE3DDA9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="152400"/>
+          <a:ext cx="7466667" cy="4619048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>27637</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>47154</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{118ECF06-31C8-40DA-94FF-DF96F7E3C8C5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7991475" y="390525"/>
+          <a:ext cx="7504762" cy="3771429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>189943</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>75790</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8FCD30D2-2BA5-4A01-AE19-FB960A3B2F36}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="533400" y="5029200"/>
+          <a:ext cx="4457143" cy="3276190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>294705</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>123409</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28333C78-F663-4329-A3C5-0ACD726FA984}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8001000" y="5029200"/>
+          <a:ext cx="4561905" cy="3323809"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
@@ -1015,7 +1199,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1493,6 +1677,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E56BFE69-74D4-4DA0-9611-FD52AFF76C7F}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="B3:V36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2294,11 +2479,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D370DDF-DA49-470A-A4F3-5B77DEAE24F5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E56FB333-19A9-494E-80BC-DCE9A72FE151}">
+  <sheetPr codeName="Sheet8"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="AG29" sqref="AG29"/>
+      <selection activeCell="AE20" sqref="AE20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -2309,10 +2495,27 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59762325-C8B3-48E3-A85B-2B2DEB36374B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D370DDF-DA49-470A-A4F3-5B77DEAE24F5}">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="M39" sqref="M39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59762325-C8B3-48E3-A85B-2B2DEB36374B}">
+  <sheetPr codeName="Sheet3"/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="M46" sqref="M46"/>
     </sheetView>
   </sheetViews>
@@ -2323,8 +2526,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CFC5CE5-2417-4215-99DD-923F11E883AE}">
+  <sheetPr codeName="Sheet4"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2338,8 +2542,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12EDC703-2CD3-4F6A-8B44-04AAB336C99B}">
+  <sheetPr codeName="Sheet5"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2353,8 +2558,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EBCC601-5AAE-4151-BD43-FBBFDDB2B179}">
+  <sheetPr codeName="Sheet6"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
@@ -2368,8 +2574,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84DD9023-EA36-4101-81B1-60C34DBE3F55}">
+  <sheetPr codeName="Sheet7"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView topLeftCell="A25" workbookViewId="0">

--- a/User_Files/ValueLine_Special_Situations.xlsx
+++ b/User_Files/ValueLine_Special_Situations.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sundeep\Stocks_Automation\User_Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05A61234-1808-4D70-9651-65E7F3ADD9B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3212902D-AD67-4391-A650-7EDE1108A625}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{75EF3D48-56E8-4117-9C9D-7A874A2D11C9}"/>
   </bookViews>
   <sheets>
     <sheet name="ReadMe" sheetId="5" r:id="rId1"/>
-    <sheet name="2020-11-Nov" sheetId="9" r:id="rId2"/>
-    <sheet name="2020-10-Oct" sheetId="8" r:id="rId3"/>
-    <sheet name="2020-09-Sep" sheetId="6" r:id="rId4"/>
-    <sheet name="2020-08-Aug" sheetId="4" r:id="rId5"/>
-    <sheet name="2020-07-Jul" sheetId="3" r:id="rId6"/>
-    <sheet name="2020-06-Jun" sheetId="2" r:id="rId7"/>
-    <sheet name="2020-05-May" sheetId="1" r:id="rId8"/>
+    <sheet name="2020-12-Dec" sheetId="10" r:id="rId2"/>
+    <sheet name="2020-11-Nov" sheetId="9" r:id="rId3"/>
+    <sheet name="2020-10-Oct" sheetId="8" r:id="rId4"/>
+    <sheet name="2020-09-Sep" sheetId="6" r:id="rId5"/>
+    <sheet name="2020-08-Aug" sheetId="4" r:id="rId6"/>
+    <sheet name="2020-07-Jul" sheetId="3" r:id="rId7"/>
+    <sheet name="2020-06-Jun" sheetId="2" r:id="rId8"/>
+    <sheet name="2020-05-May" sheetId="1" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -123,17 +124,17 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>532600</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>75390</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>151867</xdr:rowOff>
+      <xdr:rowOff>142343</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="6" name="Picture 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06EAC018-6C0B-451F-8E32-62FF2474ADAF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81CA35C4-84C2-48E3-BCA3-8511443A98DE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -150,7 +151,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="533400" y="762000"/>
-          <a:ext cx="6400000" cy="4266667"/>
+          <a:ext cx="6476190" cy="4257143"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -163,21 +164,21 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>484981</xdr:colOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>46819</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>94800</xdr:rowOff>
+      <xdr:rowOff>28114</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3571794C-40BF-4A28-AB9D-BE4298909E88}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8897B210-E976-4717-A98C-BDA03B6E2BB9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -193,35 +194,35 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8534400" y="1066800"/>
-          <a:ext cx="6352381" cy="3600000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+          <a:off x="8534400" y="914400"/>
+          <a:ext cx="6447619" cy="3685714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>266200</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>142495</xdr:rowOff>
+      <xdr:colOff>275714</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>37732</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="8" name="Picture 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1AD8EE14-AF9C-4F8B-9F86-5F3990C624B5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1AD8E695-B581-4008-BB8F-20E8BDB05A24}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -237,8 +238,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="533400" y="5943600"/>
-          <a:ext cx="4000000" cy="3038095"/>
+          <a:off x="457200" y="5476875"/>
+          <a:ext cx="4085714" cy="2942857"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -251,21 +252,21 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>323343</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>123448</xdr:rowOff>
+      <xdr:colOff>266200</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>113905</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="9" name="Picture 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E7D816B-1CDE-4DCB-B93E-A285848FE855}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68BAE086-1CC7-4BB0-9169-E787A50CF89F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -281,8 +282,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8534400" y="5791200"/>
-          <a:ext cx="4057143" cy="3019048"/>
+          <a:off x="8534400" y="5334000"/>
+          <a:ext cx="4000000" cy="3161905"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -300,21 +301,21 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>409057</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>132933</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>532600</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>151867</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="6" name="Picture 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D4DED21-9FCD-47F6-A6F5-6842CA97B220}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06EAC018-6C0B-451F-8E32-62FF2474ADAF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -330,8 +331,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="533400" y="5638800"/>
-          <a:ext cx="4142857" cy="3333333"/>
+          <a:off x="533400" y="762000"/>
+          <a:ext cx="6400000" cy="4266667"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -344,109 +345,109 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>484981</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>94800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3571794C-40BF-4A28-AB9D-BE4298909E88}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8534400" y="1066800"/>
+          <a:ext cx="6352381" cy="3600000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>266200</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>142495</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1AD8EE14-AF9C-4F8B-9F86-5F3990C624B5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="533400" y="5943600"/>
+          <a:ext cx="4000000" cy="3038095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>323343</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>85333</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Picture 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88E8A6BC-12C6-4C1B-A061-AF0E5BAE7D5C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8534400" y="5334000"/>
-          <a:ext cx="4057143" cy="3133333"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>103957</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>18508</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Picture 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5CAE10D8-C933-4185-9D65-C60AADA0F655}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="495300" y="561975"/>
-          <a:ext cx="6542857" cy="4333333"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>379022</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>123448</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="9" name="Picture 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{175F3A17-3268-44DA-B264-DFBB2EA3A4A7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E7D816B-1CDE-4DCB-B93E-A285848FE855}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -462,8 +463,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8534400" y="609600"/>
-          <a:ext cx="7313222" cy="4162425"/>
+          <a:off x="8534400" y="5791200"/>
+          <a:ext cx="4057143" cy="3019048"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -481,21 +482,21 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>456276</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>18457</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B08684A-3840-415C-9B2D-5F5AC4287F6C}"/>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>409057</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>132933</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D4DED21-9FCD-47F6-A6F5-6842CA97B220}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -511,96 +512,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="533400" y="304800"/>
-          <a:ext cx="7390476" cy="4742857"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>351513</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>94748</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54711A23-97C5-423C-A049-9F53BDC02D69}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8524875" y="647700"/>
-          <a:ext cx="7295238" cy="4019048"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>189943</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>123371</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA24BE08-A924-473D-9728-DFF0BC03F09C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="533400" y="5486400"/>
-          <a:ext cx="4457143" cy="3628571"/>
+          <a:off x="533400" y="5638800"/>
+          <a:ext cx="4142857" cy="3333333"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -613,21 +526,109 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>332800</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>94819</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F0459A5-237E-4B8B-B152-9D9EDCB6EB22}"/>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>323343</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>85333</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88E8A6BC-12C6-4C1B-A061-AF0E5BAE7D5C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8534400" y="5334000"/>
+          <a:ext cx="4057143" cy="3133333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>103957</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>18508</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5CAE10D8-C933-4185-9D65-C60AADA0F655}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="495300" y="561975"/>
+          <a:ext cx="6542857" cy="4333333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>379022</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{175F3A17-3268-44DA-B264-DFBB2EA3A4A7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -643,8 +644,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8534400" y="5486400"/>
-          <a:ext cx="4600000" cy="3447619"/>
+          <a:off x="8534400" y="609600"/>
+          <a:ext cx="7313222" cy="4162425"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -667,16 +668,16 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>532467</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>27962</xdr:rowOff>
+      <xdr:colOff>456276</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>18457</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{316BA58F-8C5A-4A66-B50B-1F8B166F3422}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B08684A-3840-415C-9B2D-5F5AC4287F6C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -693,7 +694,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="533400" y="304800"/>
-          <a:ext cx="7466667" cy="4904762"/>
+          <a:ext cx="7390476" cy="4742857"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -705,22 +706,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
+      <xdr:colOff>523875</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
-      <xdr:colOff>418171</xdr:colOff>
+      <xdr:colOff>351513</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>113801</xdr:rowOff>
+      <xdr:rowOff>94748</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91BEED75-2754-475F-AC68-733F9C1A97A8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54711A23-97C5-423C-A049-9F53BDC02D69}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -736,8 +737,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8458200" y="695325"/>
-          <a:ext cx="7428571" cy="3990476"/>
+          <a:off x="8524875" y="647700"/>
+          <a:ext cx="7295238" cy="4019048"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -750,21 +751,21 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>361371</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>66267</xdr:rowOff>
+      <xdr:colOff>189943</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>123371</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10D16582-2CA4-4B46-956F-FC507F3AAD1A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA24BE08-A924-473D-9728-DFF0BC03F09C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -780,8 +781,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="533400" y="5638800"/>
-          <a:ext cx="4628571" cy="3266667"/>
+          <a:off x="533400" y="5486400"/>
+          <a:ext cx="4457143" cy="3628571"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -794,21 +795,21 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>275657</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>9105</xdr:rowOff>
+      <xdr:colOff>332800</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>94819</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95F82E4D-E963-409B-BE02-E8305959419F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F0459A5-237E-4B8B-B152-9D9EDCB6EB22}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -824,8 +825,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8534400" y="5638800"/>
-          <a:ext cx="4542857" cy="3361905"/>
+          <a:off x="8534400" y="5486400"/>
+          <a:ext cx="4600000" cy="3447619"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -841,111 +842,111 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>532467</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>47048</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A34578E-6A11-4EFE-AC1A-0EBC0CE3DDA9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="152400"/>
-          <a:ext cx="7466667" cy="4619048"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>27637</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>47154</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{118ECF06-31C8-40DA-94FF-DF96F7E3C8C5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7991475" y="390525"/>
-          <a:ext cx="7504762" cy="3771429"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>532467</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>27962</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{316BA58F-8C5A-4A66-B50B-1F8B166F3422}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="533400" y="304800"/>
+          <a:ext cx="7466667" cy="4904762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>418171</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>113801</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91BEED75-2754-475F-AC68-733F9C1A97A8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8458200" y="695325"/>
+          <a:ext cx="7428571" cy="3990476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>189943</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>75790</xdr:rowOff>
+      <xdr:colOff>361371</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>66267</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8FCD30D2-2BA5-4A01-AE19-FB960A3B2F36}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10D16582-2CA4-4B46-956F-FC507F3AAD1A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -961,35 +962,35 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="533400" y="5029200"/>
-          <a:ext cx="4457143" cy="3276190"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>15</xdr:col>
+          <a:off x="533400" y="5638800"/>
+          <a:ext cx="4628571" cy="3266667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>294705</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>123409</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>275657</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>9105</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28333C78-F663-4329-A3C5-0ACD726FA984}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95F82E4D-E963-409B-BE02-E8305959419F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1005,8 +1006,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8001000" y="5029200"/>
-          <a:ext cx="4561905" cy="3323809"/>
+          <a:off x="8534400" y="5638800"/>
+          <a:ext cx="4542857" cy="3361905"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1024,6 +1025,187 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>532467</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>47048</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A34578E-6A11-4EFE-AC1A-0EBC0CE3DDA9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="152400"/>
+          <a:ext cx="7466667" cy="4619048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>27637</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>47154</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{118ECF06-31C8-40DA-94FF-DF96F7E3C8C5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7991475" y="390525"/>
+          <a:ext cx="7504762" cy="3771429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>189943</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>75790</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8FCD30D2-2BA5-4A01-AE19-FB960A3B2F36}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="533400" y="5029200"/>
+          <a:ext cx="4457143" cy="3276190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>294705</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>123409</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28333C78-F663-4329-A3C5-0ACD726FA984}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8001000" y="5029200"/>
+          <a:ext cx="4561905" cy="3323809"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
@@ -1199,7 +1381,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2479,11 +2661,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48F30EB5-3705-44EA-8BB2-031A525760D8}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="AE22" sqref="AE22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E56FB333-19A9-494E-80BC-DCE9A72FE151}">
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="AE20" sqref="AE20"/>
     </sheetView>
   </sheetViews>
@@ -2494,7 +2691,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D370DDF-DA49-470A-A4F3-5B77DEAE24F5}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1"/>
@@ -2510,7 +2707,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59762325-C8B3-48E3-A85B-2B2DEB36374B}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1"/>
@@ -2526,7 +2723,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CFC5CE5-2417-4215-99DD-923F11E883AE}">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1"/>
@@ -2542,7 +2739,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12EDC703-2CD3-4F6A-8B44-04AAB336C99B}">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1"/>
@@ -2558,7 +2755,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EBCC601-5AAE-4151-BD43-FBBFDDB2B179}">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1"/>
@@ -2574,7 +2771,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84DD9023-EA36-4101-81B1-60C34DBE3F55}">
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1"/>

--- a/User_Files/ValueLine_Special_Situations.xlsx
+++ b/User_Files/ValueLine_Special_Situations.xlsx
@@ -1,27 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sundeep\Stocks_Automation\User_Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3212902D-AD67-4391-A650-7EDE1108A625}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04BB69E4-5B25-4BB8-986D-0AB2821C9BB3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{75EF3D48-56E8-4117-9C9D-7A874A2D11C9}"/>
   </bookViews>
   <sheets>
     <sheet name="ReadMe" sheetId="5" r:id="rId1"/>
-    <sheet name="2020-12-Dec" sheetId="10" r:id="rId2"/>
-    <sheet name="2020-11-Nov" sheetId="9" r:id="rId3"/>
-    <sheet name="2020-10-Oct" sheetId="8" r:id="rId4"/>
-    <sheet name="2020-09-Sep" sheetId="6" r:id="rId5"/>
-    <sheet name="2020-08-Aug" sheetId="4" r:id="rId6"/>
-    <sheet name="2020-07-Jul" sheetId="3" r:id="rId7"/>
-    <sheet name="2020-06-Jun" sheetId="2" r:id="rId8"/>
-    <sheet name="2020-05-May" sheetId="1" r:id="rId9"/>
+    <sheet name="2021-01-Jan" sheetId="11" r:id="rId2"/>
+    <sheet name="2020-12-Dec" sheetId="10" r:id="rId3"/>
+    <sheet name="2020-11-Nov" sheetId="9" r:id="rId4"/>
+    <sheet name="2020-10-Oct" sheetId="8" r:id="rId5"/>
+    <sheet name="2020-09-Sep" sheetId="6" r:id="rId6"/>
+    <sheet name="2020-08-Aug" sheetId="4" r:id="rId7"/>
+    <sheet name="2020-07-Jul" sheetId="3" r:id="rId8"/>
+    <sheet name="2020-06-Jun" sheetId="2" r:id="rId9"/>
+    <sheet name="2020-05-May" sheetId="1" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -125,16 +126,16 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>75390</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>142343</xdr:rowOff>
+      <xdr:colOff>27771</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>113752</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="6" name="Picture 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81CA35C4-84C2-48E3-BCA3-8511443A98DE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3646225-B89D-4566-AD1A-96D8BB6815B7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -151,34 +152,34 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="533400" y="762000"/>
-          <a:ext cx="6476190" cy="4257143"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>16</xdr:col>
+          <a:ext cx="6428571" cy="4380952"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>46819</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>28114</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>56343</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>9029</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8897B210-E976-4717-A98C-BDA03B6E2BB9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BECB744C-D953-419A-A5A3-F769B07AB5FF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -194,35 +195,35 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8534400" y="914400"/>
-          <a:ext cx="6447619" cy="3685714"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+          <a:off x="8001000" y="914400"/>
+          <a:ext cx="6457143" cy="3971429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>275714</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>37732</xdr:rowOff>
+      <xdr:colOff>199533</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>9162</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="8" name="Picture 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1AD8E695-B581-4008-BB8F-20E8BDB05A24}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5FE041B-6774-4787-B564-DE93F2280AD3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -238,35 +239,35 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="457200" y="5476875"/>
-          <a:ext cx="4085714" cy="2942857"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>16</xdr:col>
+          <a:off x="533400" y="5791200"/>
+          <a:ext cx="3933333" cy="2904762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>266200</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>113905</xdr:rowOff>
+      <xdr:colOff>285181</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>18686</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="9" name="Picture 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68BAE086-1CC7-4BB0-9169-E787A50CF89F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA04D62D-13C2-4627-B290-DADD44669312}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -282,8 +283,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8534400" y="5334000"/>
-          <a:ext cx="4000000" cy="3161905"/>
+          <a:off x="8001000" y="5638800"/>
+          <a:ext cx="4552381" cy="2914286"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -305,17 +306,17 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>532600</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>75390</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>151867</xdr:rowOff>
+      <xdr:rowOff>142343</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="6" name="Picture 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06EAC018-6C0B-451F-8E32-62FF2474ADAF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81CA35C4-84C2-48E3-BCA3-8511443A98DE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -332,7 +333,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="533400" y="762000"/>
-          <a:ext cx="6400000" cy="4266667"/>
+          <a:ext cx="6476190" cy="4257143"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -345,21 +346,21 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>484981</xdr:colOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>46819</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>94800</xdr:rowOff>
+      <xdr:rowOff>28114</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3571794C-40BF-4A28-AB9D-BE4298909E88}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8897B210-E976-4717-A98C-BDA03B6E2BB9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -375,35 +376,35 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8534400" y="1066800"/>
-          <a:ext cx="6352381" cy="3600000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+          <a:off x="8534400" y="914400"/>
+          <a:ext cx="6447619" cy="3685714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>266200</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>142495</xdr:rowOff>
+      <xdr:colOff>275714</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>37732</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="8" name="Picture 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1AD8EE14-AF9C-4F8B-9F86-5F3990C624B5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1AD8E695-B581-4008-BB8F-20E8BDB05A24}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -419,8 +420,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="533400" y="5943600"/>
-          <a:ext cx="4000000" cy="3038095"/>
+          <a:off x="457200" y="5476875"/>
+          <a:ext cx="4085714" cy="2942857"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -433,21 +434,21 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>323343</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>123448</xdr:rowOff>
+      <xdr:colOff>266200</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>113905</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="9" name="Picture 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E7D816B-1CDE-4DCB-B93E-A285848FE855}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68BAE086-1CC7-4BB0-9169-E787A50CF89F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -463,8 +464,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8534400" y="5791200"/>
-          <a:ext cx="4057143" cy="3019048"/>
+          <a:off x="8534400" y="5334000"/>
+          <a:ext cx="4000000" cy="3161905"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -482,21 +483,21 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>409057</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>132933</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>532600</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>151867</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="6" name="Picture 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D4DED21-9FCD-47F6-A6F5-6842CA97B220}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06EAC018-6C0B-451F-8E32-62FF2474ADAF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -512,8 +513,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="533400" y="5638800"/>
-          <a:ext cx="4142857" cy="3333333"/>
+          <a:off x="533400" y="762000"/>
+          <a:ext cx="6400000" cy="4266667"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -526,109 +527,109 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>484981</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>94800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3571794C-40BF-4A28-AB9D-BE4298909E88}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8534400" y="1066800"/>
+          <a:ext cx="6352381" cy="3600000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>266200</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>142495</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1AD8EE14-AF9C-4F8B-9F86-5F3990C624B5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="533400" y="5943600"/>
+          <a:ext cx="4000000" cy="3038095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>323343</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>85333</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Picture 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88E8A6BC-12C6-4C1B-A061-AF0E5BAE7D5C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8534400" y="5334000"/>
-          <a:ext cx="4057143" cy="3133333"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>103957</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>18508</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Picture 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5CAE10D8-C933-4185-9D65-C60AADA0F655}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="495300" y="561975"/>
-          <a:ext cx="6542857" cy="4333333"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>379022</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>123448</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="9" name="Picture 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{175F3A17-3268-44DA-B264-DFBB2EA3A4A7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E7D816B-1CDE-4DCB-B93E-A285848FE855}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -644,8 +645,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8534400" y="609600"/>
-          <a:ext cx="7313222" cy="4162425"/>
+          <a:off x="8534400" y="5791200"/>
+          <a:ext cx="4057143" cy="3019048"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -663,21 +664,21 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>456276</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>18457</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B08684A-3840-415C-9B2D-5F5AC4287F6C}"/>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>409057</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>132933</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D4DED21-9FCD-47F6-A6F5-6842CA97B220}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -693,96 +694,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="533400" y="304800"/>
-          <a:ext cx="7390476" cy="4742857"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>351513</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>94748</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54711A23-97C5-423C-A049-9F53BDC02D69}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8524875" y="647700"/>
-          <a:ext cx="7295238" cy="4019048"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>189943</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>123371</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA24BE08-A924-473D-9728-DFF0BC03F09C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="533400" y="5486400"/>
-          <a:ext cx="4457143" cy="3628571"/>
+          <a:off x="533400" y="5638800"/>
+          <a:ext cx="4142857" cy="3333333"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -795,21 +708,109 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>332800</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>94819</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F0459A5-237E-4B8B-B152-9D9EDCB6EB22}"/>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>323343</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>85333</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88E8A6BC-12C6-4C1B-A061-AF0E5BAE7D5C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8534400" y="5334000"/>
+          <a:ext cx="4057143" cy="3133333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>103957</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>18508</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5CAE10D8-C933-4185-9D65-C60AADA0F655}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="495300" y="561975"/>
+          <a:ext cx="6542857" cy="4333333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>379022</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{175F3A17-3268-44DA-B264-DFBB2EA3A4A7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -825,8 +826,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8534400" y="5486400"/>
-          <a:ext cx="4600000" cy="3447619"/>
+          <a:off x="8534400" y="609600"/>
+          <a:ext cx="7313222" cy="4162425"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -849,16 +850,16 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>532467</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>27962</xdr:rowOff>
+      <xdr:colOff>456276</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>18457</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{316BA58F-8C5A-4A66-B50B-1F8B166F3422}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B08684A-3840-415C-9B2D-5F5AC4287F6C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -875,7 +876,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="533400" y="304800"/>
-          <a:ext cx="7466667" cy="4904762"/>
+          <a:ext cx="7390476" cy="4742857"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -887,22 +888,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
+      <xdr:colOff>523875</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
-      <xdr:colOff>418171</xdr:colOff>
+      <xdr:colOff>351513</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>113801</xdr:rowOff>
+      <xdr:rowOff>94748</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91BEED75-2754-475F-AC68-733F9C1A97A8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54711A23-97C5-423C-A049-9F53BDC02D69}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -918,8 +919,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8458200" y="695325"/>
-          <a:ext cx="7428571" cy="3990476"/>
+          <a:off x="8524875" y="647700"/>
+          <a:ext cx="7295238" cy="4019048"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -932,21 +933,21 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>361371</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>66267</xdr:rowOff>
+      <xdr:colOff>189943</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>123371</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10D16582-2CA4-4B46-956F-FC507F3AAD1A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA24BE08-A924-473D-9728-DFF0BC03F09C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -962,8 +963,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="533400" y="5638800"/>
-          <a:ext cx="4628571" cy="3266667"/>
+          <a:off x="533400" y="5486400"/>
+          <a:ext cx="4457143" cy="3628571"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -976,21 +977,21 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>275657</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>9105</xdr:rowOff>
+      <xdr:colOff>332800</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>94819</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95F82E4D-E963-409B-BE02-E8305959419F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F0459A5-237E-4B8B-B152-9D9EDCB6EB22}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1006,8 +1007,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8534400" y="5638800"/>
-          <a:ext cx="4542857" cy="3361905"/>
+          <a:off x="8534400" y="5486400"/>
+          <a:ext cx="4600000" cy="3447619"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1023,111 +1024,111 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>532467</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>47048</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A34578E-6A11-4EFE-AC1A-0EBC0CE3DDA9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="152400"/>
-          <a:ext cx="7466667" cy="4619048"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>27637</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>47154</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{118ECF06-31C8-40DA-94FF-DF96F7E3C8C5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7991475" y="390525"/>
-          <a:ext cx="7504762" cy="3771429"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>532467</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>27962</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{316BA58F-8C5A-4A66-B50B-1F8B166F3422}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="533400" y="304800"/>
+          <a:ext cx="7466667" cy="4904762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>418171</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>113801</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91BEED75-2754-475F-AC68-733F9C1A97A8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8458200" y="695325"/>
+          <a:ext cx="7428571" cy="3990476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>189943</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>75790</xdr:rowOff>
+      <xdr:colOff>361371</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>66267</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8FCD30D2-2BA5-4A01-AE19-FB960A3B2F36}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10D16582-2CA4-4B46-956F-FC507F3AAD1A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1143,35 +1144,35 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="533400" y="5029200"/>
-          <a:ext cx="4457143" cy="3276190"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>15</xdr:col>
+          <a:off x="533400" y="5638800"/>
+          <a:ext cx="4628571" cy="3266667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>294705</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>123409</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>275657</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>9105</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28333C78-F663-4329-A3C5-0ACD726FA984}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95F82E4D-E963-409B-BE02-E8305959419F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1187,8 +1188,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8001000" y="5029200"/>
-          <a:ext cx="4561905" cy="3323809"/>
+          <a:off x="8534400" y="5638800"/>
+          <a:ext cx="4542857" cy="3361905"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1206,6 +1207,187 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>532467</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>47048</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A34578E-6A11-4EFE-AC1A-0EBC0CE3DDA9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="152400"/>
+          <a:ext cx="7466667" cy="4619048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>27637</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>47154</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{118ECF06-31C8-40DA-94FF-DF96F7E3C8C5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7991475" y="390525"/>
+          <a:ext cx="7504762" cy="3771429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>189943</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>75790</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8FCD30D2-2BA5-4A01-AE19-FB960A3B2F36}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="533400" y="5029200"/>
+          <a:ext cx="4457143" cy="3276190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>294705</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>123409</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28333C78-F663-4329-A3C5-0ACD726FA984}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8001000" y="5029200"/>
+          <a:ext cx="4561905" cy="3323809"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
@@ -1381,7 +1563,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2660,11 +2842,42 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84DD9023-EA36-4101-81B1-60C34DBE3F55}">
+  <sheetPr codeName="Sheet7"/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="AF40" sqref="AF40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9930A12D-40F5-4AB3-80D8-6CBB4D58AD2F}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="AF9" sqref="AF9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48F30EB5-3705-44EA-8BB2-031A525760D8}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="AE22" sqref="AE22"/>
     </sheetView>
   </sheetViews>
@@ -2675,7 +2888,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E56FB333-19A9-494E-80BC-DCE9A72FE151}">
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1"/>
@@ -2691,7 +2904,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D370DDF-DA49-470A-A4F3-5B77DEAE24F5}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1"/>
@@ -2707,7 +2920,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59762325-C8B3-48E3-A85B-2B2DEB36374B}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1"/>
@@ -2723,7 +2936,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CFC5CE5-2417-4215-99DD-923F11E883AE}">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1"/>
@@ -2739,7 +2952,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12EDC703-2CD3-4F6A-8B44-04AAB336C99B}">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1"/>
@@ -2755,7 +2968,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EBCC601-5AAE-4151-BD43-FBBFDDB2B179}">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1"/>
@@ -2769,20 +2982,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84DD9023-EA36-4101-81B1-60C34DBE3F55}">
-  <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="AF40" sqref="AF40"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>
--- a/User_Files/ValueLine_Special_Situations.xlsx
+++ b/User_Files/ValueLine_Special_Situations.xlsx
@@ -8,21 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sundeep\Stocks_Automation\User_Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04BB69E4-5B25-4BB8-986D-0AB2821C9BB3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B81E21E-05B2-4DA9-ABB4-FFB899E2DAF6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{75EF3D48-56E8-4117-9C9D-7A874A2D11C9}"/>
   </bookViews>
   <sheets>
     <sheet name="ReadMe" sheetId="5" r:id="rId1"/>
-    <sheet name="2021-01-Jan" sheetId="11" r:id="rId2"/>
-    <sheet name="2020-12-Dec" sheetId="10" r:id="rId3"/>
-    <sheet name="2020-11-Nov" sheetId="9" r:id="rId4"/>
-    <sheet name="2020-10-Oct" sheetId="8" r:id="rId5"/>
-    <sheet name="2020-09-Sep" sheetId="6" r:id="rId6"/>
-    <sheet name="2020-08-Aug" sheetId="4" r:id="rId7"/>
-    <sheet name="2020-07-Jul" sheetId="3" r:id="rId8"/>
-    <sheet name="2020-06-Jun" sheetId="2" r:id="rId9"/>
-    <sheet name="2020-05-May" sheetId="1" r:id="rId10"/>
+    <sheet name="2021-03-Mar" sheetId="13" r:id="rId2"/>
+    <sheet name="2021-02-Feb" sheetId="12" r:id="rId3"/>
+    <sheet name="2021-01-Jan" sheetId="11" r:id="rId4"/>
+    <sheet name="2020-12-Dec" sheetId="10" r:id="rId5"/>
+    <sheet name="2020-11-Nov" sheetId="9" r:id="rId6"/>
+    <sheet name="2020-10-Oct" sheetId="8" r:id="rId7"/>
+    <sheet name="2020-09-Sep" sheetId="6" r:id="rId8"/>
+    <sheet name="2020-08-Aug" sheetId="4" r:id="rId9"/>
+    <sheet name="2020-07-Jul" sheetId="3" r:id="rId10"/>
+    <sheet name="2020-06-Jun" sheetId="2" r:id="rId11"/>
+    <sheet name="2020-05-May" sheetId="1" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -119,155 +121,517 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>141686</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7001893E-5A09-43AC-A323-2D1BCCA4D72D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="514350" y="666750"/>
+          <a:ext cx="7067550" cy="4504136"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>151664</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E383ED29-C6C9-47D5-BBCD-49BE6D3181D1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8934450" y="628650"/>
+          <a:ext cx="7038975" cy="4552214"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>323340</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>151974</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7EC3FDF-3D23-4C86-A7D7-0830594B3DB0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="514350" y="5276850"/>
+          <a:ext cx="4076190" cy="3409524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>132867</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>37695</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7FDE864-21DD-4EEF-9403-7686CDCAAE3B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9067800" y="5334000"/>
+          <a:ext cx="3866667" cy="3238095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>332400</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>66095</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0858A834-110C-4E38-A897-44D60ACBE9B8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="304800"/>
+          <a:ext cx="7800000" cy="4638095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>351439</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>56658</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F74E102-8881-4D3D-8B6C-880B9509858D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8467725" y="695325"/>
+          <a:ext cx="7885714" cy="3933333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>27771</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>456609</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>104324</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{456F32D4-334C-4820-ACE7-FBC5C0F1B478}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="533400" y="5181600"/>
+          <a:ext cx="4723809" cy="3609524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>113752</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3646225-B89D-4566-AD1A-96D8BB6815B7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="533400" y="762000"/>
-          <a:ext cx="6428571" cy="4380952"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>56343</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>9029</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Picture 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BECB744C-D953-419A-A5A3-F769B07AB5FF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8001000" y="914400"/>
-          <a:ext cx="6457143" cy="3971429"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>389943</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>104362</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A2BB4F0-7600-4659-9684-31C9A972B699}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8534400" y="5029200"/>
+          <a:ext cx="4657143" cy="3304762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>199533</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>9162</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Picture 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5FE041B-6774-4787-B564-DE93F2280AD3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="533400" y="5791200"/>
-          <a:ext cx="3933333" cy="2904762"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
       <xdr:col>15</xdr:col>
+      <xdr:colOff>265733</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>113695</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB65F73D-FC8C-47C3-B640-1D557890E558}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="533400" y="457200"/>
+          <a:ext cx="7733333" cy="4838095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>132381</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>104251</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{539C30D0-B195-4A38-9B98-E003EAB566F1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8915400" y="942975"/>
+          <a:ext cx="7752381" cy="4190476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>37</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>285181</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>18686</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="Picture 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA04D62D-13C2-4627-B290-DADD44669312}"/>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>303962</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>18457</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2CFF9A75-61B3-467D-83D9-6797736DABF2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1066800" y="5638800"/>
+          <a:ext cx="6704762" cy="4742857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>227771</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>66076</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE11D223-90CB-4226-96E9-A65DE8F3E6A9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -283,8 +647,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8001000" y="5638800"/>
-          <a:ext cx="4552381" cy="2914286"/>
+          <a:off x="9067800" y="5638800"/>
+          <a:ext cx="6628571" cy="4790476"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -307,16 +671,16 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>75390</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>142343</xdr:rowOff>
+      <xdr:colOff>37295</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>8990</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="6" name="Picture 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81CA35C4-84C2-48E3-BCA3-8511443A98DE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A32772D8-41C3-4DA6-A62B-4D414725B6E3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -333,34 +697,34 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="533400" y="762000"/>
-          <a:ext cx="6476190" cy="4257143"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>16</xdr:col>
+          <a:ext cx="6438095" cy="4276190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>46819</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>28114</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>189676</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>104267</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8897B210-E976-4717-A98C-BDA03B6E2BB9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F524CBBA-2A34-452D-93D6-1205D6A32B0C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -376,35 +740,35 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8534400" y="914400"/>
-          <a:ext cx="6447619" cy="3685714"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+          <a:off x="8001000" y="914400"/>
+          <a:ext cx="6590476" cy="4066667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>275714</xdr:colOff>
+      <xdr:colOff>170962</xdr:colOff>
       <xdr:row>55</xdr:row>
-      <xdr:rowOff>37732</xdr:rowOff>
+      <xdr:rowOff>152019</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="8" name="Picture 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1AD8E695-B581-4008-BB8F-20E8BDB05A24}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B7B165D-2309-4633-8DFD-C09DC6F6D421}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -420,35 +784,35 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="457200" y="5476875"/>
-          <a:ext cx="4085714" cy="2942857"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>16</xdr:col>
+          <a:off x="533400" y="5486400"/>
+          <a:ext cx="3904762" cy="3047619"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>266200</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>113905</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>123343</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>18648</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="9" name="Picture 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68BAE086-1CC7-4BB0-9169-E787A50CF89F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F41C0FFB-4999-4A2E-8C60-DD4E2CAB1CAF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -464,8 +828,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8534400" y="5334000"/>
-          <a:ext cx="4000000" cy="3161905"/>
+          <a:off x="8001000" y="5486400"/>
+          <a:ext cx="3857143" cy="3219048"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -487,61 +851,61 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>532600</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>27771</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>113752</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3646225-B89D-4566-AD1A-96D8BB6815B7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="533400" y="762000"/>
+          <a:ext cx="6428571" cy="4380952"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>56343</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>151867</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06EAC018-6C0B-451F-8E32-62FF2474ADAF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="533400" y="762000"/>
-          <a:ext cx="6400000" cy="4266667"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>484981</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>94800</xdr:rowOff>
+      <xdr:rowOff>9029</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3571794C-40BF-4A28-AB9D-BE4298909E88}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BECB744C-D953-419A-A5A3-F769B07AB5FF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -557,8 +921,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8534400" y="1066800"/>
-          <a:ext cx="6352381" cy="3600000"/>
+          <a:off x="8001000" y="914400"/>
+          <a:ext cx="6457143" cy="3971429"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -570,66 +934,66 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>266200</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>142495</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Picture 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1AD8EE14-AF9C-4F8B-9F86-5F3990C624B5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="533400" y="5943600"/>
-          <a:ext cx="4000000" cy="3038095"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>16</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>38</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>199533</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>9162</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5FE041B-6774-4787-B564-DE93F2280AD3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="533400" y="5791200"/>
+          <a:ext cx="3933333" cy="2904762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>323343</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>123448</xdr:rowOff>
+      <xdr:colOff>285181</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>18686</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="9" name="Picture 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E7D816B-1CDE-4DCB-B93E-A285848FE855}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA04D62D-13C2-4627-B290-DADD44669312}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -645,8 +1009,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8534400" y="5791200"/>
-          <a:ext cx="4057143" cy="3019048"/>
+          <a:off x="8001000" y="5638800"/>
+          <a:ext cx="4552381" cy="2914286"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -664,38 +1028,126 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>75390</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>142343</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81CA35C4-84C2-48E3-BCA3-8511443A98DE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="533400" y="762000"/>
+          <a:ext cx="6476190" cy="4257143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>46819</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>28114</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8897B210-E976-4717-A98C-BDA03B6E2BB9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8534400" y="914400"/>
+          <a:ext cx="6447619" cy="3685714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>409057</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>132933</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D4DED21-9FCD-47F6-A6F5-6842CA97B220}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="533400" y="5638800"/>
-          <a:ext cx="4142857" cy="3333333"/>
+      <xdr:colOff>275714</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>37732</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1AD8E695-B581-4008-BB8F-20E8BDB05A24}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="457200" y="5476875"/>
+          <a:ext cx="4085714" cy="2942857"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -713,25 +1165,25 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>323343</xdr:colOff>
+      <xdr:colOff>266200</xdr:colOff>
       <xdr:row>55</xdr:row>
-      <xdr:rowOff>85333</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Picture 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88E8A6BC-12C6-4C1B-A061-AF0E5BAE7D5C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+      <xdr:rowOff>113905</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68BAE086-1CC7-4BB0-9169-E787A50CF89F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -739,95 +1191,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="8534400" y="5334000"/>
-          <a:ext cx="4057143" cy="3133333"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>103957</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>18508</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Picture 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5CAE10D8-C933-4185-9D65-C60AADA0F655}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="495300" y="561975"/>
-          <a:ext cx="6542857" cy="4333333"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>379022</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="Picture 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{175F3A17-3268-44DA-B264-DFBB2EA3A4A7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8534400" y="609600"/>
-          <a:ext cx="7313222" cy="4162425"/>
+          <a:ext cx="4000000" cy="3161905"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -845,21 +1209,21 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>456276</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>18457</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B08684A-3840-415C-9B2D-5F5AC4287F6C}"/>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>532600</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>151867</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06EAC018-6C0B-451F-8E32-62FF2474ADAF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -875,35 +1239,35 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="533400" y="304800"/>
-          <a:ext cx="7390476" cy="4742857"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>351513</xdr:colOff>
+          <a:off x="533400" y="762000"/>
+          <a:ext cx="6400000" cy="4266667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>484981</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>94748</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54711A23-97C5-423C-A049-9F53BDC02D69}"/>
+      <xdr:rowOff>94800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3571794C-40BF-4A28-AB9D-BE4298909E88}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -919,8 +1283,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8524875" y="647700"/>
-          <a:ext cx="7295238" cy="4019048"/>
+          <a:off x="8534400" y="1066800"/>
+          <a:ext cx="6352381" cy="3600000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -933,21 +1297,21 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>189943</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>123371</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA24BE08-A924-473D-9728-DFF0BC03F09C}"/>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>266200</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>142495</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1AD8EE14-AF9C-4F8B-9F86-5F3990C624B5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -963,8 +1327,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="533400" y="5486400"/>
-          <a:ext cx="4457143" cy="3628571"/>
+          <a:off x="533400" y="5943600"/>
+          <a:ext cx="4000000" cy="3038095"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -977,21 +1341,21 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>332800</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>94819</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F0459A5-237E-4B8B-B152-9D9EDCB6EB22}"/>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>323343</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>123448</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E7D816B-1CDE-4DCB-B93E-A285848FE855}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1007,8 +1371,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8534400" y="5486400"/>
-          <a:ext cx="4600000" cy="3447619"/>
+          <a:off x="8534400" y="5791200"/>
+          <a:ext cx="4057143" cy="3019048"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1026,118 +1390,30 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>532467</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>27962</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{316BA58F-8C5A-4A66-B50B-1F8B166F3422}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="533400" y="304800"/>
-          <a:ext cx="7466667" cy="4904762"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>418171</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>113801</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91BEED75-2754-475F-AC68-733F9C1A97A8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8458200" y="695325"/>
-          <a:ext cx="7428571" cy="3990476"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
       <xdr:row>37</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>361371</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>409057</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>66267</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10D16582-2CA4-4B46-956F-FC507F3AAD1A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+      <xdr:rowOff>132933</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D4DED21-9FCD-47F6-A6F5-6842CA97B220}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1145,7 +1421,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="533400" y="5638800"/>
-          <a:ext cx="4628571" cy="3266667"/>
+          <a:ext cx="4142857" cy="3333333"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1158,21 +1434,109 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>275657</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>9105</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95F82E4D-E963-409B-BE02-E8305959419F}"/>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>323343</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>85333</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88E8A6BC-12C6-4C1B-A061-AF0E5BAE7D5C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8534400" y="5334000"/>
+          <a:ext cx="4057143" cy="3133333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>103957</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>18508</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5CAE10D8-C933-4185-9D65-C60AADA0F655}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="495300" y="561975"/>
+          <a:ext cx="6542857" cy="4333333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>379022</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{175F3A17-3268-44DA-B264-DFBB2EA3A4A7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1188,8 +1552,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8534400" y="5638800"/>
-          <a:ext cx="4542857" cy="3361905"/>
+          <a:off x="8534400" y="609600"/>
+          <a:ext cx="7313222" cy="4162425"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1205,111 +1569,111 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>532467</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>47048</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A34578E-6A11-4EFE-AC1A-0EBC0CE3DDA9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="152400"/>
-          <a:ext cx="7466667" cy="4619048"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>27637</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>47154</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{118ECF06-31C8-40DA-94FF-DF96F7E3C8C5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7991475" y="390525"/>
-          <a:ext cx="7504762" cy="3771429"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>456276</xdr:colOff>
       <xdr:row>33</xdr:row>
+      <xdr:rowOff>18457</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B08684A-3840-415C-9B2D-5F5AC4287F6C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="533400" y="304800"/>
+          <a:ext cx="7390476" cy="4742857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>351513</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>94748</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54711A23-97C5-423C-A049-9F53BDC02D69}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8524875" y="647700"/>
+          <a:ext cx="7295238" cy="4019048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>189943</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>75790</xdr:rowOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>123371</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8FCD30D2-2BA5-4A01-AE19-FB960A3B2F36}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA24BE08-A924-473D-9728-DFF0BC03F09C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1325,35 +1689,35 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="533400" y="5029200"/>
-          <a:ext cx="4457143" cy="3276190"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>15</xdr:col>
+          <a:off x="533400" y="5486400"/>
+          <a:ext cx="4457143" cy="3628571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>294705</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>123409</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>332800</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>94819</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28333C78-F663-4329-A3C5-0ACD726FA984}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F0459A5-237E-4B8B-B152-9D9EDCB6EB22}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1369,8 +1733,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8001000" y="5029200"/>
-          <a:ext cx="4561905" cy="3323809"/>
+          <a:off x="8534400" y="5486400"/>
+          <a:ext cx="4600000" cy="3447619"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1386,23 +1750,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>332400</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>66095</xdr:rowOff>
+      <xdr:colOff>532467</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>27962</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0858A834-110C-4E38-A897-44D60ACBE9B8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{316BA58F-8C5A-4A66-B50B-1F8B166F3422}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1418,8 +1782,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="304800"/>
-          <a:ext cx="7800000" cy="4638095"/>
+          <a:off x="533400" y="304800"/>
+          <a:ext cx="7466667" cy="4904762"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1431,22 +1795,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>466725</xdr:colOff>
+      <xdr:colOff>457200</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>351439</xdr:colOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>418171</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>56658</xdr:rowOff>
+      <xdr:rowOff>113801</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F74E102-8881-4D3D-8B6C-880B9509858D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91BEED75-2754-475F-AC68-733F9C1A97A8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1462,8 +1826,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8467725" y="695325"/>
-          <a:ext cx="7885714" cy="3933333"/>
+          <a:off x="8458200" y="695325"/>
+          <a:ext cx="7428571" cy="3990476"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1476,21 +1840,21 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>456609</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>104324</xdr:rowOff>
+      <xdr:colOff>361371</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>66267</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{456F32D4-334C-4820-ACE7-FBC5C0F1B478}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10D16582-2CA4-4B46-956F-FC507F3AAD1A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1506,8 +1870,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="533400" y="5181600"/>
-          <a:ext cx="4723809" cy="3609524"/>
+          <a:off x="533400" y="5638800"/>
+          <a:ext cx="4628571" cy="3266667"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1520,21 +1884,21 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>389943</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>104362</xdr:rowOff>
+      <xdr:colOff>275657</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>9105</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A2BB4F0-7600-4659-9684-31C9A972B699}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95F82E4D-E963-409B-BE02-E8305959419F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1550,8 +1914,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8534400" y="5029200"/>
-          <a:ext cx="4657143" cy="3304762"/>
+          <a:off x="8534400" y="5638800"/>
+          <a:ext cx="4542857" cy="3361905"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1567,155 +1931,155 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>532467</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>47048</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A34578E-6A11-4EFE-AC1A-0EBC0CE3DDA9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="152400"/>
+          <a:ext cx="7466667" cy="4619048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>27637</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>47154</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{118ECF06-31C8-40DA-94FF-DF96F7E3C8C5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7991475" y="390525"/>
+          <a:ext cx="7504762" cy="3771429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>189943</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>75790</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8FCD30D2-2BA5-4A01-AE19-FB960A3B2F36}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="533400" y="5029200"/>
+          <a:ext cx="4457143" cy="3276190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>265733</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>113695</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB65F73D-FC8C-47C3-B640-1D557890E558}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="533400" y="457200"/>
-          <a:ext cx="7733333" cy="4838095"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>132381</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>104251</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{539C30D0-B195-4A38-9B98-E003EAB566F1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8915400" y="942975"/>
-          <a:ext cx="7752381" cy="4190476"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>37</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>303962</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>18457</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2CFF9A75-61B3-467D-83D9-6797736DABF2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1066800" y="5638800"/>
-          <a:ext cx="6704762" cy="4742857"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>227771</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>66076</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>294705</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>123409</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE11D223-90CB-4226-96E9-A65DE8F3E6A9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28333C78-F663-4329-A3C5-0ACD726FA984}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1731,8 +2095,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9067800" y="5638800"/>
-          <a:ext cx="6628571" cy="4790476"/>
+          <a:off x="8001000" y="5029200"/>
+          <a:ext cx="4561905" cy="3323809"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2843,6 +3207,38 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12EDC703-2CD3-4F6A-8B44-04AAB336C99B}">
+  <sheetPr codeName="Sheet5"/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P34" sqref="P34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EBCC601-5AAE-4151-BD43-FBBFDDB2B179}">
+  <sheetPr codeName="Sheet6"/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="N48" sqref="N48"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84DD9023-EA36-4101-81B1-60C34DBE3F55}">
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1"/>
@@ -2859,11 +3255,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9930A12D-40F5-4AB3-80D8-6CBB4D58AD2F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{637141A6-40CA-4E42-B7B1-5C14C4C93CB6}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="AF9" sqref="AF9"/>
+      <selection activeCell="Q27" sqref="Q27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -2874,6 +3270,36 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA2D163B-FE03-4937-B2BD-19B6D283A836}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="N43" sqref="N43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9930A12D-40F5-4AB3-80D8-6CBB4D58AD2F}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="AA39" sqref="AA39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48F30EB5-3705-44EA-8BB2-031A525760D8}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -2888,7 +3314,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E56FB333-19A9-494E-80BC-DCE9A72FE151}">
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1"/>
@@ -2904,7 +3330,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D370DDF-DA49-470A-A4F3-5B77DEAE24F5}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1"/>
@@ -2920,7 +3346,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59762325-C8B3-48E3-A85B-2B2DEB36374B}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1"/>
@@ -2936,7 +3362,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CFC5CE5-2417-4215-99DD-923F11E883AE}">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1"/>
@@ -2950,36 +3376,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12EDC703-2CD3-4F6A-8B44-04AAB336C99B}">
-  <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P34" sqref="P34"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EBCC601-5AAE-4151-BD43-FBBFDDB2B179}">
-  <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="N48" sqref="N48"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>
--- a/User_Files/ValueLine_Special_Situations.xlsx
+++ b/User_Files/ValueLine_Special_Situations.xlsx
@@ -8,23 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sundeep\Stocks_Automation\User_Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B81E21E-05B2-4DA9-ABB4-FFB899E2DAF6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97A863F2-15DB-42B4-BF25-FFD5CA9CEAB9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{75EF3D48-56E8-4117-9C9D-7A874A2D11C9}"/>
   </bookViews>
   <sheets>
     <sheet name="ReadMe" sheetId="5" r:id="rId1"/>
-    <sheet name="2021-03-Mar" sheetId="13" r:id="rId2"/>
-    <sheet name="2021-02-Feb" sheetId="12" r:id="rId3"/>
-    <sheet name="2021-01-Jan" sheetId="11" r:id="rId4"/>
-    <sheet name="2020-12-Dec" sheetId="10" r:id="rId5"/>
-    <sheet name="2020-11-Nov" sheetId="9" r:id="rId6"/>
-    <sheet name="2020-10-Oct" sheetId="8" r:id="rId7"/>
-    <sheet name="2020-09-Sep" sheetId="6" r:id="rId8"/>
-    <sheet name="2020-08-Aug" sheetId="4" r:id="rId9"/>
-    <sheet name="2020-07-Jul" sheetId="3" r:id="rId10"/>
-    <sheet name="2020-06-Jun" sheetId="2" r:id="rId11"/>
-    <sheet name="2020-05-May" sheetId="1" r:id="rId12"/>
+    <sheet name="2021-06-Jun" sheetId="16" r:id="rId2"/>
+    <sheet name="2021-05-May" sheetId="15" r:id="rId3"/>
+    <sheet name="2021-04-Apr" sheetId="14" r:id="rId4"/>
+    <sheet name="2021-03-Mar" sheetId="13" r:id="rId5"/>
+    <sheet name="2021-02-Feb" sheetId="12" r:id="rId6"/>
+    <sheet name="2021-01-Jan" sheetId="11" r:id="rId7"/>
+    <sheet name="2020-12-Dec" sheetId="10" r:id="rId8"/>
+    <sheet name="2020-11-Nov" sheetId="9" r:id="rId9"/>
+    <sheet name="2020-10-Oct" sheetId="8" r:id="rId10"/>
+    <sheet name="2020-09-Sep" sheetId="6" r:id="rId11"/>
+    <sheet name="2020-08-Aug" sheetId="4" r:id="rId12"/>
+    <sheet name="2020-07-Jul" sheetId="3" r:id="rId13"/>
+    <sheet name="2020-06-Jun" sheetId="2" r:id="rId14"/>
+    <sheet name="2020-05-May" sheetId="1" r:id="rId15"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -121,23 +124,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>141686</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>532600</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>47162</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="6" name="Picture 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7001893E-5A09-43AC-A323-2D1BCCA4D72D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5F87E50-A431-4B1F-BD55-E890C350A6C3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -153,35 +156,35 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="514350" y="666750"/>
-          <a:ext cx="7067550" cy="4504136"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>151664</xdr:rowOff>
+          <a:off x="533400" y="762000"/>
+          <a:ext cx="6400000" cy="3704762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>465933</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>104267</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E383ED29-C6C9-47D5-BBCD-49BE6D3181D1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1DB80DA5-B2A0-4F3A-9B7B-81FAED381E7E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -197,79 +200,79 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8934450" y="628650"/>
-          <a:ext cx="7038975" cy="4552214"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
+          <a:off x="8001000" y="762000"/>
+          <a:ext cx="6333333" cy="4066667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>323340</xdr:colOff>
+      <xdr:colOff>313820</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>104424</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6BB7EB27-795A-4579-9059-4184C25C72C1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="542925" y="5219700"/>
+          <a:ext cx="4038095" cy="2809524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>170962</xdr:colOff>
       <xdr:row>56</xdr:row>
-      <xdr:rowOff>151974</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Picture 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7EC3FDF-3D23-4C86-A7D7-0830594B3DB0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="514350" y="5276850"/>
-          <a:ext cx="4076190" cy="3409524"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>132867</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>37695</xdr:rowOff>
+      <xdr:rowOff>18629</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="9" name="Picture 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7FDE864-21DD-4EEF-9403-7686CDCAAE3B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E797AE4-9E31-4A82-A529-04DFE09CF715}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -285,8 +288,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9067800" y="5334000"/>
-          <a:ext cx="3866667" cy="3238095"/>
+          <a:off x="8001000" y="5181600"/>
+          <a:ext cx="3904762" cy="3371429"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -302,23 +305,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>332400</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>66095</xdr:rowOff>
+      <xdr:colOff>456276</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>18457</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0858A834-110C-4E38-A897-44D60ACBE9B8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B08684A-3840-415C-9B2D-5F5AC4287F6C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -334,8 +337,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="304800"/>
-          <a:ext cx="7800000" cy="4638095"/>
+          <a:off x="533400" y="304800"/>
+          <a:ext cx="7390476" cy="4742857"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -347,22 +350,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>466725</xdr:colOff>
+      <xdr:colOff>523875</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>351439</xdr:colOff>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>351513</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>56658</xdr:rowOff>
+      <xdr:rowOff>94748</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F74E102-8881-4D3D-8B6C-880B9509858D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54711A23-97C5-423C-A049-9F53BDC02D69}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -378,8 +381,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8467725" y="695325"/>
-          <a:ext cx="7885714" cy="3933333"/>
+          <a:off x="8524875" y="647700"/>
+          <a:ext cx="7295238" cy="4019048"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -392,21 +395,21 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>456609</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>104324</xdr:rowOff>
+      <xdr:colOff>189943</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>123371</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{456F32D4-334C-4820-ACE7-FBC5C0F1B478}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA24BE08-A924-473D-9728-DFF0BC03F09C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -422,8 +425,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="533400" y="5181600"/>
-          <a:ext cx="4723809" cy="3609524"/>
+          <a:off x="533400" y="5486400"/>
+          <a:ext cx="4457143" cy="3628571"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -436,21 +439,21 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>389943</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>104362</xdr:rowOff>
+      <xdr:colOff>332800</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>94819</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A2BB4F0-7600-4659-9684-31C9A972B699}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F0459A5-237E-4B8B-B152-9D9EDCB6EB22}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -466,8 +469,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8534400" y="5029200"/>
-          <a:ext cx="4657143" cy="3304762"/>
+          <a:off x="8534400" y="5486400"/>
+          <a:ext cx="4600000" cy="3447619"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -485,6 +488,549 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>532467</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>27962</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{316BA58F-8C5A-4A66-B50B-1F8B166F3422}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="533400" y="304800"/>
+          <a:ext cx="7466667" cy="4904762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>418171</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>113801</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91BEED75-2754-475F-AC68-733F9C1A97A8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8458200" y="695325"/>
+          <a:ext cx="7428571" cy="3990476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>361371</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>66267</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10D16582-2CA4-4B46-956F-FC507F3AAD1A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="533400" y="5638800"/>
+          <a:ext cx="4628571" cy="3266667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>275657</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>9105</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95F82E4D-E963-409B-BE02-E8305959419F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8534400" y="5638800"/>
+          <a:ext cx="4542857" cy="3361905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>532467</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>47048</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A34578E-6A11-4EFE-AC1A-0EBC0CE3DDA9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="152400"/>
+          <a:ext cx="7466667" cy="4619048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>27637</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>47154</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{118ECF06-31C8-40DA-94FF-DF96F7E3C8C5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7991475" y="390525"/>
+          <a:ext cx="7504762" cy="3771429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>189943</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>75790</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8FCD30D2-2BA5-4A01-AE19-FB960A3B2F36}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="533400" y="5029200"/>
+          <a:ext cx="4457143" cy="3276190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>294705</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>123409</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28333C78-F663-4329-A3C5-0ACD726FA984}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8001000" y="5029200"/>
+          <a:ext cx="4561905" cy="3323809"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>332400</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>66095</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0858A834-110C-4E38-A897-44D60ACBE9B8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="304800"/>
+          <a:ext cx="7800000" cy="4638095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>351439</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>56658</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F74E102-8881-4D3D-8B6C-880B9509858D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8467725" y="695325"/>
+          <a:ext cx="7885714" cy="3933333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>456609</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>104324</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{456F32D4-334C-4820-ACE7-FBC5C0F1B478}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="533400" y="5181600"/>
+          <a:ext cx="4723809" cy="3609524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>389943</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>104362</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A2BB4F0-7600-4659-9684-31C9A972B699}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8534400" y="5029200"/>
+          <a:ext cx="4657143" cy="3304762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing14.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
@@ -670,34 +1216,122 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>37295</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>523076</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>66190</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C0B67B1-627E-4AF7-8124-79BDF3983C90}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="533400" y="762000"/>
+          <a:ext cx="6390476" cy="3876190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>504029</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>8990</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A32772D8-41C3-4DA6-A62B-4D414725B6E3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="533400" y="762000"/>
-          <a:ext cx="6438095" cy="4276190"/>
+      <xdr:rowOff>113771</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{937C7533-F33A-433C-ACCE-3577E075F9EF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8001000" y="914400"/>
+          <a:ext cx="6371429" cy="4228571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>123345</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>47270</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3663CB79-E968-4943-A2C5-D4B8072B23BD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="552450" y="5591175"/>
+          <a:ext cx="3838095" cy="2838095"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -710,109 +1344,21 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>189676</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>104267</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Picture 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F524CBBA-2A34-452D-93D6-1205D6A32B0C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8001000" y="914400"/>
-          <a:ext cx="6590476" cy="4066667"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>170962</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>152019</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Picture 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B7B165D-2309-4633-8DFD-C09DC6F6D421}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="533400" y="5486400"/>
-          <a:ext cx="3904762" cy="3047619"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>123343</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>18648</xdr:rowOff>
+      <xdr:colOff>190009</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>56743</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="9" name="Picture 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F41C0FFB-4999-4A2E-8C60-DD4E2CAB1CAF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44842D5C-920C-49C2-BE0B-8B5EB74CA3F1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -828,8 +1374,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8001000" y="5486400"/>
-          <a:ext cx="3857143" cy="3219048"/>
+          <a:off x="8001000" y="5638800"/>
+          <a:ext cx="3923809" cy="3257143"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -852,16 +1398,16 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>27771</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>113752</xdr:rowOff>
+      <xdr:colOff>123009</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>47162</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="6" name="Picture 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3646225-B89D-4566-AD1A-96D8BB6815B7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD55FEB3-133B-4E84-AAFD-387F745E1505}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -878,7 +1424,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="533400" y="762000"/>
-          <a:ext cx="6428571" cy="4380952"/>
+          <a:ext cx="6523809" cy="3704762"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -891,21 +1437,21 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>56343</xdr:colOff>
+      <xdr:colOff>18248</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>9029</xdr:rowOff>
+      <xdr:rowOff>142343</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BECB744C-D953-419A-A5A3-F769B07AB5FF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9CB0E2DD-5855-4505-A261-E6B654032256}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -921,8 +1467,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8001000" y="914400"/>
-          <a:ext cx="6457143" cy="3971429"/>
+          <a:off x="8001000" y="762000"/>
+          <a:ext cx="6419048" cy="4257143"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -935,21 +1481,21 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>199533</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>9162</xdr:rowOff>
+      <xdr:colOff>237629</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>132990</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="8" name="Picture 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5FE041B-6774-4787-B564-DE93F2280AD3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E715AD6A-5BF3-423B-B7CA-48460783CB0D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -965,8 +1511,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="533400" y="5791200"/>
-          <a:ext cx="3933333" cy="2904762"/>
+          <a:off x="533400" y="5486400"/>
+          <a:ext cx="3971429" cy="2876190"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -979,21 +1525,21 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>285181</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>18686</xdr:rowOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>161438</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>28133</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="9" name="Picture 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA04D62D-13C2-4627-B290-DADD44669312}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98EFA2C0-CF1B-4B98-A39F-AABC7455BF67}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1009,8 +1555,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8001000" y="5638800"/>
-          <a:ext cx="4552381" cy="2914286"/>
+          <a:off x="8001000" y="5334000"/>
+          <a:ext cx="3895238" cy="3533333"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1026,23 +1572,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>75390</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>142343</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>141686</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="6" name="Picture 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81CA35C4-84C2-48E3-BCA3-8511443A98DE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7001893E-5A09-43AC-A323-2D1BCCA4D72D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1058,8 +1604,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="533400" y="762000"/>
-          <a:ext cx="6476190" cy="4257143"/>
+          <a:off x="514350" y="666750"/>
+          <a:ext cx="7067550" cy="4504136"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1071,22 +1617,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>46819</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>28114</xdr:rowOff>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>151664</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8897B210-E976-4717-A98C-BDA03B6E2BB9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E383ED29-C6C9-47D5-BBCD-49BE6D3181D1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1102,8 +1648,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8534400" y="914400"/>
-          <a:ext cx="6447619" cy="3685714"/>
+          <a:off x="8934450" y="628650"/>
+          <a:ext cx="7038975" cy="4552214"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1115,66 +1661,66 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>323340</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>151974</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7EC3FDF-3D23-4C86-A7D7-0830594B3DB0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="514350" y="5276850"/>
+          <a:ext cx="4076190" cy="3409524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>275714</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>37732</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Picture 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1AD8E695-B581-4008-BB8F-20E8BDB05A24}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="457200" y="5476875"/>
-          <a:ext cx="4085714" cy="2942857"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>266200</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>113905</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>132867</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>37695</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="9" name="Picture 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68BAE086-1CC7-4BB0-9169-E787A50CF89F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7FDE864-21DD-4EEF-9403-7686CDCAAE3B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1190,8 +1736,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8534400" y="5334000"/>
-          <a:ext cx="4000000" cy="3161905"/>
+          <a:off x="9067800" y="5334000"/>
+          <a:ext cx="3866667" cy="3238095"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1213,61 +1759,61 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>532600</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>37295</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>8990</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A32772D8-41C3-4DA6-A62B-4D414725B6E3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="533400" y="762000"/>
+          <a:ext cx="6438095" cy="4276190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>189676</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>151867</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06EAC018-6C0B-451F-8E32-62FF2474ADAF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="533400" y="762000"/>
-          <a:ext cx="6400000" cy="4266667"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>484981</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>94800</xdr:rowOff>
+      <xdr:rowOff>104267</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3571794C-40BF-4A28-AB9D-BE4298909E88}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F524CBBA-2A34-452D-93D6-1205D6A32B0C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1283,8 +1829,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8534400" y="1066800"/>
-          <a:ext cx="6352381" cy="3600000"/>
+          <a:off x="8001000" y="914400"/>
+          <a:ext cx="6590476" cy="4066667"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1297,21 +1843,21 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>266200</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>142495</xdr:rowOff>
+      <xdr:colOff>170962</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>152019</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="8" name="Picture 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1AD8EE14-AF9C-4F8B-9F86-5F3990C624B5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B7B165D-2309-4633-8DFD-C09DC6F6D421}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1327,35 +1873,35 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="533400" y="5943600"/>
-          <a:ext cx="4000000" cy="3038095"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>323343</xdr:colOff>
+          <a:off x="533400" y="5486400"/>
+          <a:ext cx="3904762" cy="3047619"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>123343</xdr:colOff>
       <xdr:row>57</xdr:row>
-      <xdr:rowOff>123448</xdr:rowOff>
+      <xdr:rowOff>18648</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="9" name="Picture 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E7D816B-1CDE-4DCB-B93E-A285848FE855}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F41C0FFB-4999-4A2E-8C60-DD4E2CAB1CAF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1371,8 +1917,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8534400" y="5791200"/>
-          <a:ext cx="4057143" cy="3019048"/>
+          <a:off x="8001000" y="5486400"/>
+          <a:ext cx="3857143" cy="3219048"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1390,153 +1936,153 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>27771</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>113752</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3646225-B89D-4566-AD1A-96D8BB6815B7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="533400" y="762000"/>
+          <a:ext cx="6428571" cy="4380952"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>56343</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>9029</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BECB744C-D953-419A-A5A3-F769B07AB5FF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8001000" y="914400"/>
+          <a:ext cx="6457143" cy="3971429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>199533</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>9162</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5FE041B-6774-4787-B564-DE93F2280AD3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="533400" y="5791200"/>
+          <a:ext cx="3933333" cy="2904762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>37</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>409057</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>132933</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D4DED21-9FCD-47F6-A6F5-6842CA97B220}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="533400" y="5638800"/>
-          <a:ext cx="4142857" cy="3333333"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>323343</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>85333</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Picture 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88E8A6BC-12C6-4C1B-A061-AF0E5BAE7D5C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8534400" y="5334000"/>
-          <a:ext cx="4057143" cy="3133333"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>103957</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>18508</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Picture 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5CAE10D8-C933-4185-9D65-C60AADA0F655}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="495300" y="561975"/>
-          <a:ext cx="6542857" cy="4333333"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>379022</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:colOff>285181</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>18686</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="9" name="Picture 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{175F3A17-3268-44DA-B264-DFBB2EA3A4A7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA04D62D-13C2-4627-B290-DADD44669312}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1552,8 +2098,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8534400" y="609600"/>
-          <a:ext cx="7313222" cy="4162425"/>
+          <a:off x="8001000" y="5638800"/>
+          <a:ext cx="4552381" cy="2914286"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1571,21 +2117,21 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>456276</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>18457</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B08684A-3840-415C-9B2D-5F5AC4287F6C}"/>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>75390</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>142343</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81CA35C4-84C2-48E3-BCA3-8511443A98DE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1601,35 +2147,35 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="533400" y="304800"/>
-          <a:ext cx="7390476" cy="4742857"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>351513</xdr:colOff>
+          <a:off x="533400" y="762000"/>
+          <a:ext cx="6476190" cy="4257143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>46819</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>94748</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54711A23-97C5-423C-A049-9F53BDC02D69}"/>
+      <xdr:rowOff>28114</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8897B210-E976-4717-A98C-BDA03B6E2BB9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1645,35 +2191,35 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8524875" y="647700"/>
-          <a:ext cx="7295238" cy="4019048"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>189943</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>123371</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA24BE08-A924-473D-9728-DFF0BC03F09C}"/>
+          <a:off x="8534400" y="914400"/>
+          <a:ext cx="6447619" cy="3685714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>275714</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>37732</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1AD8E695-B581-4008-BB8F-20E8BDB05A24}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1689,8 +2235,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="533400" y="5486400"/>
-          <a:ext cx="4457143" cy="3628571"/>
+          <a:off x="457200" y="5476875"/>
+          <a:ext cx="4085714" cy="2942857"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1703,21 +2249,21 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>332800</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>94819</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F0459A5-237E-4B8B-B152-9D9EDCB6EB22}"/>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>266200</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>113905</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68BAE086-1CC7-4BB0-9169-E787A50CF89F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1733,8 +2279,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8534400" y="5486400"/>
-          <a:ext cx="4600000" cy="3447619"/>
+          <a:off x="8534400" y="5334000"/>
+          <a:ext cx="4000000" cy="3161905"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1752,21 +2298,21 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>532467</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>27962</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{316BA58F-8C5A-4A66-B50B-1F8B166F3422}"/>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>532600</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>151867</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06EAC018-6C0B-451F-8E32-62FF2474ADAF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1782,35 +2328,35 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="533400" y="304800"/>
-          <a:ext cx="7466667" cy="4904762"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>418171</xdr:colOff>
+          <a:off x="533400" y="762000"/>
+          <a:ext cx="6400000" cy="4266667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>484981</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>113801</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91BEED75-2754-475F-AC68-733F9C1A97A8}"/>
+      <xdr:rowOff>94800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3571794C-40BF-4A28-AB9D-BE4298909E88}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1826,8 +2372,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8458200" y="695325"/>
-          <a:ext cx="7428571" cy="3990476"/>
+          <a:off x="8534400" y="1066800"/>
+          <a:ext cx="6352381" cy="3600000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1840,21 +2386,21 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>361371</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>266200</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>66267</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10D16582-2CA4-4B46-956F-FC507F3AAD1A}"/>
+      <xdr:rowOff>142495</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1AD8EE14-AF9C-4F8B-9F86-5F3990C624B5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1870,8 +2416,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="533400" y="5638800"/>
-          <a:ext cx="4628571" cy="3266667"/>
+          <a:off x="533400" y="5943600"/>
+          <a:ext cx="4000000" cy="3038095"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1884,21 +2430,21 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>275657</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>9105</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95F82E4D-E963-409B-BE02-E8305959419F}"/>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>323343</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>123448</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E7D816B-1CDE-4DCB-B93E-A285848FE855}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1914,8 +2460,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8534400" y="5638800"/>
-          <a:ext cx="4542857" cy="3361905"/>
+          <a:off x="8534400" y="5791200"/>
+          <a:ext cx="4057143" cy="3019048"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1931,155 +2477,155 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>409057</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>132933</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D4DED21-9FCD-47F6-A6F5-6842CA97B220}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="533400" y="5638800"/>
+          <a:ext cx="4142857" cy="3333333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>323343</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>85333</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88E8A6BC-12C6-4C1B-A061-AF0E5BAE7D5C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8534400" y="5334000"/>
+          <a:ext cx="4057143" cy="3133333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>532467</xdr:colOff>
+      <xdr:colOff>103957</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>18508</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5CAE10D8-C933-4185-9D65-C60AADA0F655}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="495300" y="561975"/>
+          <a:ext cx="6542857" cy="4333333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>379022</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>47048</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A34578E-6A11-4EFE-AC1A-0EBC0CE3DDA9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="152400"/>
-          <a:ext cx="7466667" cy="4619048"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>27637</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>47154</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{118ECF06-31C8-40DA-94FF-DF96F7E3C8C5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7991475" y="390525"/>
-          <a:ext cx="7504762" cy="3771429"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>189943</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>75790</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8FCD30D2-2BA5-4A01-AE19-FB960A3B2F36}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="533400" y="5029200"/>
-          <a:ext cx="4457143" cy="3276190"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>294705</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>123409</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28333C78-F663-4329-A3C5-0ACD726FA984}"/>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{175F3A17-3268-44DA-B264-DFBB2EA3A4A7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2095,8 +2641,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8001000" y="5029200"/>
-          <a:ext cx="4561905" cy="3323809"/>
+          <a:off x="8534400" y="609600"/>
+          <a:ext cx="7313222" cy="4162425"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3207,6 +3753,54 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D370DDF-DA49-470A-A4F3-5B77DEAE24F5}">
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="M39" sqref="M39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59762325-C8B3-48E3-A85B-2B2DEB36374B}">
+  <sheetPr codeName="Sheet3"/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="M46" sqref="M46"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CFC5CE5-2417-4215-99DD-923F11E883AE}">
+  <sheetPr codeName="Sheet4"/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L39" sqref="L39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12EDC703-2CD3-4F6A-8B44-04AAB336C99B}">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1"/>
@@ -3222,7 +3816,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EBCC601-5AAE-4151-BD43-FBBFDDB2B179}">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1"/>
@@ -3238,7 +3832,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84DD9023-EA36-4101-81B1-60C34DBE3F55}">
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1"/>
@@ -3255,11 +3849,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{637141A6-40CA-4E42-B7B1-5C14C4C93CB6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F6463A4-E574-4AF2-B7F9-A655FCD9A025}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="Q27" sqref="Q27"/>
+      <selection activeCell="Y42" sqref="Y42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -3270,6 +3864,51 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4B69B85-07A0-4A7F-A53B-EDA354BC9096}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="Y44" sqref="Y44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B702E0BA-439B-47B5-98D2-A9053AB170D8}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="AB42" sqref="AB42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{637141A6-40CA-4E42-B7B1-5C14C4C93CB6}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="M46" sqref="M46"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA2D163B-FE03-4937-B2BD-19B6D283A836}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -3284,7 +3923,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9930A12D-40F5-4AB3-80D8-6CBB4D58AD2F}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -3299,7 +3938,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48F30EB5-3705-44EA-8BB2-031A525760D8}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -3314,7 +3953,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E56FB333-19A9-494E-80BC-DCE9A72FE151}">
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1"/>
@@ -3328,52 +3967,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D370DDF-DA49-470A-A4F3-5B77DEAE24F5}">
-  <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="M39" sqref="M39"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59762325-C8B3-48E3-A85B-2B2DEB36374B}">
-  <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="M46" sqref="M46"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CFC5CE5-2417-4215-99DD-923F11E883AE}">
-  <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L39" sqref="L39"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>